--- a/Report/graduate/table.xlsx
+++ b/Report/graduate/table.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Documents\Research\Report\graduate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E3BDCD-C976-4B2A-B4FB-6D8B57FEB142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5996F9EA-D03C-49E7-B186-53792E352BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="6.2" sheetId="1" r:id="rId1"/>
-    <sheet name="6.3" sheetId="2" r:id="rId2"/>
+    <sheet name="6.1" sheetId="3" r:id="rId1"/>
+    <sheet name="6.2" sheetId="1" r:id="rId2"/>
+    <sheet name="6.3" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>選手</t>
     <rPh sb="0" eb="2">
@@ -146,6 +147,107 @@
   </si>
   <si>
     <t>32 GB</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4K</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画質</t>
+    <rPh sb="0" eb="2">
+      <t>ガシツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>フレームレート</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>その他特徴</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トクチョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1080p</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>720p</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>24, 25, 30, 60</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>25, 30, 60</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>最大3倍のデジタルズーム
+光学的手振れ補正</t>
+    <rPh sb="0" eb="2">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>バイ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>コウガクテキ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>テブ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ホセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1台目のカメラ</t>
+    <rPh sb="1" eb="3">
+      <t>ダイメ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2台目のカメラ</t>
+    <rPh sb="1" eb="3">
+      <t>ダイメ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>X[mm]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Y[mm]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Z[mm]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>推定値</t>
+    <rPh sb="0" eb="3">
+      <t>スイテイチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>実測値</t>
+    <rPh sb="0" eb="3">
+      <t>ジッソクチ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -153,7 +255,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,6 +278,13 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="游明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -197,7 +306,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -248,6 +357,150 @@
       </bottom>
       <diagonal/>
     </border>
+    <border diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -258,7 +511,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -286,6 +539,60 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -569,6 +876,144 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E403005B-4D77-4363-9195-9F22108007FD}">
+  <dimension ref="B1:J6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="3" max="3" width="14.125" customWidth="1"/>
+    <col min="4" max="4" width="29.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="19.5" thickBot="1">
+      <c r="B1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" ht="19.5" thickTop="1">
+      <c r="B2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="13"/>
+      <c r="G2" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="15"/>
+      <c r="I2" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="17"/>
+    </row>
+    <row r="3" spans="2:10" ht="19.5" thickBot="1">
+      <c r="B3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="19.5" thickTop="1">
+      <c r="B4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="2">
+        <v>30</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="F4" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="23">
+        <v>22400</v>
+      </c>
+      <c r="H4" s="24">
+        <v>22594</v>
+      </c>
+      <c r="I4" s="23">
+        <v>22530</v>
+      </c>
+      <c r="J4" s="25">
+        <v>22425</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="F5" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="27">
+        <v>12500</v>
+      </c>
+      <c r="H5" s="26">
+        <v>23960</v>
+      </c>
+      <c r="I5" s="27">
+        <v>-3640</v>
+      </c>
+      <c r="J5" s="28">
+        <v>-3659</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="F6" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="27">
+        <v>3890</v>
+      </c>
+      <c r="H6" s="26">
+        <v>4000</v>
+      </c>
+      <c r="I6" s="27">
+        <v>3890</v>
+      </c>
+      <c r="J6" s="28">
+        <v>3958</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="F2:F3"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:H8"/>
   <sheetViews>
@@ -726,11 +1171,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9806CB13-5EE5-4972-9296-A404FDE3B5C2}">
   <dimension ref="B2:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:C4"/>
     </sheetView>
   </sheetViews>
